--- a/Assets/ERang/Excels/ActData.xlsx
+++ b/Assets/ERang/Excels/ActData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ActID</t>
   </si>
@@ -51,13 +51,35 @@
   </si>
   <si>
     <t>액트_03</t>
+  </si>
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>WidthMin</t>
+  </si>
+  <si>
+    <t>WidthMax</t>
+  </si>
+  <si>
+    <t>HeightMin</t>
+  </si>
+  <si>
+    <t>HeightMax</t>
+  </si>
+  <si>
+    <t>1001, 1002, 1003</t>
+  </si>
+  <si>
+    <t>1001, 1002, 1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -83,20 +105,6 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -141,28 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,32 +506,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5">
+    <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,91 +534,99 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="16.5">
+      <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="17.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" ht="16.5">
+      <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" ht="16.5">
+      <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/ActData.xlsx
+++ b/Assets/ERang/Excels/ActData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ActID</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>1001, 1002, 1003</t>
-  </si>
-  <si>
-    <t>1001, 1002, 1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +505,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -625,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
